--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xupeng8\Documents\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,8 +771,12 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="7">
+        <v>18957159554</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18957159554</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
       </c>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>利益相关者</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>用户代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公地点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,24 +630,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,30 +660,36 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,20 +702,22 @@
       <c r="D3" s="4">
         <v>13588224816</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -707,20 +726,22 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -729,42 +750,50 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7">
+        <v>15381123839</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15381123839</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -773,48 +802,50 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
+++ b/PRD-2017-G24/STW/受控文件/分析设计/项目总体计划/项目相关者基本信息及利益相关者分析.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xupeng8\Documents\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\PRD2017\PRD-2017-G24\STW\受控文件\分析设计\项目总体计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>利益相关者</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>用户代表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公地点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,24 +630,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,30 +660,36 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,20 +702,22 @@
       <c r="D3" s="4">
         <v>13588224816</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -707,20 +726,22 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -729,96 +750,102 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="7">
+        <v>15381123839</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15381123839</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
-        <v>18957159554</v>
-      </c>
-      <c r="D7" s="7">
-        <v>18957159554</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
